--- a/Synoptic/Data/2021-06/202106_GHG_GCHeadspace.xlsx
+++ b/Synoptic/Data/2021-06/202106_GHG_GCHeadspace.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carla López Lloreda\Dropbox\Grad school\Research\Delmarva project\Projects\Synoptic\Data\2021-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA41A68-27C1-4DB6-A2E8-77FA486129E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DC22FF-756D-4157-BE9B-E364B940322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B9F46523-41A8-448F-A46A-C2D7363E9E8A}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="357">
   <si>
     <t>GC_Number</t>
   </si>
@@ -135,21 +135,6 @@
     <t>Sample_Type</t>
   </si>
   <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>air + 100</t>
-  </si>
-  <si>
-    <t>DD 2107 123</t>
-  </si>
-  <si>
-    <t>DD 2107 121</t>
-  </si>
-  <si>
-    <t>DD 2107 122</t>
-  </si>
-  <si>
     <t>DD 2107 017</t>
   </si>
   <si>
@@ -270,24 +255,9 @@
     <t>DD 2107 024</t>
   </si>
   <si>
-    <t>DD 2107 103</t>
-  </si>
-  <si>
     <t>DD 2107 084</t>
   </si>
   <si>
-    <t>DD 2107 119</t>
-  </si>
-  <si>
-    <t>DD 2107 115</t>
-  </si>
-  <si>
-    <t>DD 2107 106</t>
-  </si>
-  <si>
-    <t>DD 2107 098</t>
-  </si>
-  <si>
     <t>DD 2107 093</t>
   </si>
   <si>
@@ -297,81 +267,30 @@
     <t>DD 2107 081</t>
   </si>
   <si>
-    <t>DD 2107 117</t>
-  </si>
-  <si>
-    <t>DD 2107 110</t>
-  </si>
-  <si>
     <t>DD 2107 088</t>
   </si>
   <si>
     <t>DD 2107 096</t>
   </si>
   <si>
-    <t>DD 2107 102</t>
-  </si>
-  <si>
-    <t>DD 2107 112</t>
-  </si>
-  <si>
-    <t>DD 2107 101</t>
-  </si>
-  <si>
     <t>DD 2107 091</t>
   </si>
   <si>
-    <t>DD 2107 120</t>
-  </si>
-  <si>
     <t>DD 2107 095</t>
   </si>
   <si>
-    <t>DD 2107 107</t>
-  </si>
-  <si>
     <t>DD 2107 086</t>
   </si>
   <si>
-    <t>DD 2107 116</t>
-  </si>
-  <si>
-    <t>DD 2107 113</t>
-  </si>
-  <si>
     <t>DD 2107 090</t>
   </si>
   <si>
-    <t>DD 2107 109</t>
-  </si>
-  <si>
-    <t>DD 2107 105</t>
-  </si>
-  <si>
-    <t>DD 2107 104</t>
-  </si>
-  <si>
     <t>DD 2107 089</t>
   </si>
   <si>
-    <t>DD 2107 114</t>
-  </si>
-  <si>
     <t>DD 2107 082</t>
   </si>
   <si>
-    <t>DD 2107 111</t>
-  </si>
-  <si>
-    <t>DD 2107 100</t>
-  </si>
-  <si>
-    <t>DD 2107 118</t>
-  </si>
-  <si>
-    <t>DD 2107 097</t>
-  </si>
-  <si>
     <t>DD 2107 085</t>
   </si>
   <si>
@@ -384,12 +303,6 @@
     <t>DD 2107 087</t>
   </si>
   <si>
-    <t>DD 2107 108</t>
-  </si>
-  <si>
-    <t>DD 2107 099</t>
-  </si>
-  <si>
     <t>DD 2107 055</t>
   </si>
   <si>
@@ -1213,24 +1126,6 @@
   </si>
   <si>
     <t>TS</t>
-  </si>
-  <si>
-    <t>AirCO2_med_ppm</t>
-  </si>
-  <si>
-    <t>AirCO2_min_ppm</t>
-  </si>
-  <si>
-    <t>AirCO2_max_ppm</t>
-  </si>
-  <si>
-    <t>AirCH4_med_ppm</t>
-  </si>
-  <si>
-    <t>AirCH4_min_ppm</t>
-  </si>
-  <si>
-    <t>AirCH4_max_ppm</t>
   </si>
   <si>
     <t>Blank</t>
@@ -1655,12 +1550,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEB0679-200B-40E0-8249-72636D6E4DAF}">
-  <dimension ref="A1:AD130"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="Z50" sqref="Z49:Z50"/>
+      <selection pane="bottomLeft" activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1679,11 +1574,15 @@
     <col min="15" max="15" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="43.2">
+    <row r="1" spans="1:24" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,31 +1655,13 @@
       <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>6.0209999999999999</v>
@@ -1801,40 +1682,40 @@
         <v>4295.43394202534</v>
       </c>
       <c r="I2" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="J2" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="L2" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N2" s="5">
         <v>20210618</v>
       </c>
       <c r="O2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="Q2" s="6">
         <v>17.7</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W2">
         <v>20</v>
@@ -1842,16 +1723,13 @@
       <c r="X2">
         <v>20</v>
       </c>
-      <c r="Y2">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>6.024</v>
@@ -1872,40 +1750,40 @@
         <v>3700.2552315535004</v>
       </c>
       <c r="I3" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="J3" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="L3" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M3" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N3" s="5">
         <v>20210618</v>
       </c>
       <c r="O3" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="P3" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="Q3" s="6">
         <v>17.7</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W3">
         <v>20</v>
@@ -1913,16 +1791,13 @@
       <c r="X3">
         <v>20</v>
       </c>
-      <c r="Y3">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>6.0170000000000003</v>
@@ -1943,40 +1818,40 @@
         <v>4306.6714594825598</v>
       </c>
       <c r="I4" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="J4" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="L4" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M4" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N4" s="5">
         <v>20210618</v>
       </c>
       <c r="O4" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="P4" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="6">
         <v>17.7</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W4">
         <v>20</v>
@@ -1984,16 +1859,13 @@
       <c r="X4">
         <v>20</v>
       </c>
-      <c r="Y4">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>6.0359999999999996</v>
@@ -2014,40 +1886,40 @@
         <v>16524.61166451094</v>
       </c>
       <c r="I5" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="J5" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L5" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M5" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N5" s="5">
         <v>20210618</v>
       </c>
       <c r="O5" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="P5" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="8">
         <v>15</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W5">
         <v>20</v>
@@ -2055,16 +1927,13 @@
       <c r="X5">
         <v>20</v>
       </c>
-      <c r="Y5">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>6.032</v>
@@ -2085,40 +1954,40 @@
         <v>17236.221376805999</v>
       </c>
       <c r="I6" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="J6" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L6" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M6" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N6" s="5">
         <v>20210618</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="P6" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="8">
         <v>15</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W6">
         <v>20</v>
@@ -2126,16 +1995,13 @@
       <c r="X6">
         <v>20</v>
       </c>
-      <c r="Y6">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>6.0259999999999998</v>
@@ -2156,40 +2022,40 @@
         <v>17525.1389977535</v>
       </c>
       <c r="I7" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="J7" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N7" s="5">
         <v>20210618</v>
       </c>
       <c r="O7" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="P7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="8">
         <v>15</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W7">
         <v>20</v>
@@ -2197,16 +2063,13 @@
       <c r="X7">
         <v>20</v>
       </c>
-      <c r="Y7">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>6.0220000000000002</v>
@@ -2227,40 +2090,40 @@
         <v>8807.5856702008605</v>
       </c>
       <c r="I8" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="J8" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="L8" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N8" s="5">
         <v>20210618</v>
       </c>
       <c r="O8" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="P8" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="8">
         <v>21.3</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W8">
         <v>20</v>
@@ -2268,16 +2131,13 @@
       <c r="X8">
         <v>20</v>
       </c>
-      <c r="Y8">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>6.0110000000000001</v>
@@ -2298,40 +2158,40 @@
         <v>8214.62876501336</v>
       </c>
       <c r="I9" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="J9" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="L9" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M9" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N9" s="5">
         <v>20210618</v>
       </c>
       <c r="O9" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P9" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="Q9" s="8">
         <v>21.3</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W9">
         <v>20</v>
@@ -2339,16 +2199,13 @@
       <c r="X9">
         <v>20</v>
       </c>
-      <c r="Y9">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>6.0119999999999996</v>
@@ -2369,40 +2226,40 @@
         <v>8361.5219191894394</v>
       </c>
       <c r="I10" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="J10" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="L10" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N10" s="5">
         <v>20210618</v>
       </c>
       <c r="O10" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="P10" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="8">
         <v>21.3</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W10">
         <v>20</v>
@@ -2410,16 +2267,13 @@
       <c r="X10">
         <v>20</v>
       </c>
-      <c r="Y10">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>6.0129999999999999</v>
@@ -2440,40 +2294,40 @@
         <v>6190.49551195206</v>
       </c>
       <c r="I11" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="J11" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="L11" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N11" s="5">
         <v>20210618</v>
       </c>
       <c r="O11" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="P11" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="8">
         <v>17.5</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W11">
         <v>20</v>
@@ -2481,16 +2335,13 @@
       <c r="X11">
         <v>20</v>
       </c>
-      <c r="Y11">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>6.0220000000000002</v>
@@ -2511,40 +2362,40 @@
         <v>4841.9413243917397</v>
       </c>
       <c r="I12" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="J12" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N12" s="5">
         <v>20210618</v>
       </c>
       <c r="O12" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="P12" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="Q12" s="8">
         <v>17.5</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W12">
         <v>20</v>
@@ -2552,16 +2403,13 @@
       <c r="X12">
         <v>20</v>
       </c>
-      <c r="Y12">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>6.0220000000000002</v>
@@ -2582,40 +2430,40 @@
         <v>3894.0470355541597</v>
       </c>
       <c r="I13" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="J13" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N13" s="5">
         <v>20210618</v>
       </c>
       <c r="O13" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="P13" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="8">
         <v>17.5</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W13">
         <v>20</v>
@@ -2623,16 +2471,13 @@
       <c r="X13">
         <v>20</v>
       </c>
-      <c r="Y13">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>6.0190000000000001</v>
@@ -2653,40 +2498,40 @@
         <v>6409.8994835149397</v>
       </c>
       <c r="I14" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="J14" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M14" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N14" s="5">
         <v>20210618</v>
       </c>
       <c r="O14" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="P14" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="8">
         <v>18.899999999999999</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W14">
         <v>20</v>
@@ -2694,16 +2539,13 @@
       <c r="X14">
         <v>20</v>
       </c>
-      <c r="Y14">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>6.0119999999999996</v>
@@ -2724,40 +2566,40 @@
         <v>6298.4917870134996</v>
       </c>
       <c r="I15" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="J15" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M15" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N15" s="5">
         <v>20210618</v>
       </c>
       <c r="O15" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="P15" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="Q15" s="8">
         <v>18.899999999999999</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W15">
         <v>20</v>
@@ -2765,16 +2607,13 @@
       <c r="X15">
         <v>20</v>
       </c>
-      <c r="Y15">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>6.0209999999999999</v>
@@ -2795,40 +2634,40 @@
         <v>6152.6563070105603</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="J16" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M16" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N16" s="5">
         <v>20210618</v>
       </c>
       <c r="O16" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="P16" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="8">
         <v>18.899999999999999</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W16">
         <v>20</v>
@@ -2836,16 +2675,13 @@
       <c r="X16">
         <v>20</v>
       </c>
-      <c r="Y16">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C17">
         <v>6.0209999999999999</v>
@@ -2866,40 +2702,40 @@
         <v>22341.642656013501</v>
       </c>
       <c r="I17" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="J17" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M17" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N17" s="5">
         <v>20210618</v>
       </c>
       <c r="O17" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="P17" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="8">
         <v>16.600000000000001</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W17">
         <v>20</v>
@@ -2907,16 +2743,13 @@
       <c r="X17">
         <v>20</v>
       </c>
-      <c r="Y17">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>6.0220000000000002</v>
@@ -2937,40 +2770,40 @@
         <v>20840.589478159742</v>
       </c>
       <c r="I18" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="J18" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M18" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N18" s="5">
         <v>20210618</v>
       </c>
       <c r="O18" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="P18" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="8">
         <v>16.600000000000001</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T18">
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W18">
         <v>20</v>
@@ -2978,16 +2811,13 @@
       <c r="X18">
         <v>20</v>
       </c>
-      <c r="Y18">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C19">
         <v>6.024</v>
@@ -3008,40 +2838,40 @@
         <v>20249.796784995739</v>
       </c>
       <c r="I19" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="J19" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M19" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N19" s="5">
         <v>20210618</v>
       </c>
       <c r="O19" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="P19" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="8">
         <v>16.600000000000001</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T19">
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W19">
         <v>20</v>
@@ -3049,16 +2879,13 @@
       <c r="X19">
         <v>20</v>
       </c>
-      <c r="Y19">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C20">
         <v>6.0519999999999996</v>
@@ -3079,25 +2906,25 @@
         <v>511.30790321349997</v>
       </c>
       <c r="J20" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K20" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M20" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N20">
         <v>20210618</v>
       </c>
       <c r="P20" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="W20">
         <v>20</v>
@@ -3105,16 +2932,13 @@
       <c r="X20">
         <v>20</v>
       </c>
-      <c r="Y20">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>6.0380000000000003</v>
@@ -3135,25 +2959,25 @@
         <v>643.93204868054011</v>
       </c>
       <c r="J21" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K21" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M21" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N21">
         <v>20210618</v>
       </c>
       <c r="P21" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="W21">
         <v>20</v>
@@ -3161,16 +2985,13 @@
       <c r="X21">
         <v>20</v>
       </c>
-      <c r="Y21">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>6.0490000000000004</v>
@@ -3191,25 +3012,25 @@
         <v>458.17741088486002</v>
       </c>
       <c r="J22" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K22" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M22" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N22">
         <v>20210618</v>
       </c>
       <c r="P22" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="W22">
         <v>20</v>
@@ -3217,16 +3038,13 @@
       <c r="X22">
         <v>20</v>
       </c>
-      <c r="Y22">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>6.06</v>
@@ -3247,22 +3065,22 @@
         <v>694.1875386889601</v>
       </c>
       <c r="J23" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K23" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="L23" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M23" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="P23" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="W23">
         <v>20</v>
@@ -3270,16 +3088,13 @@
       <c r="X23">
         <v>20</v>
       </c>
-      <c r="Y23">
-        <v>577.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>6.0069999999999997</v>
@@ -3300,40 +3115,40 @@
         <v>8335.1433176464616</v>
       </c>
       <c r="I24" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="J24" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="L24" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M24" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N24" s="5">
         <v>20210617</v>
       </c>
       <c r="O24" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="P24" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="Q24" s="6">
         <v>16.600000000000001</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W24">
         <v>20</v>
@@ -3341,19 +3156,13 @@
       <c r="X24">
         <v>20</v>
       </c>
-      <c r="Y24">
-        <v>538.4</v>
-      </c>
-      <c r="AB24">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>6.0119999999999996</v>
@@ -3374,40 +3183,40 @@
         <v>7876.5486924605402</v>
       </c>
       <c r="I25" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="J25" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M25" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N25" s="5">
         <v>20210617</v>
       </c>
       <c r="O25" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="P25" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="Q25" s="6">
         <v>16.600000000000001</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W25">
         <v>20</v>
@@ -3415,19 +3224,13 @@
       <c r="X25">
         <v>20</v>
       </c>
-      <c r="Y25">
-        <v>538.4</v>
-      </c>
-      <c r="AB25">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>6.0060000000000002</v>
@@ -3448,40 +3251,40 @@
         <v>7538.9352061648606</v>
       </c>
       <c r="I26" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="J26" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M26" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N26" s="5">
         <v>20210617</v>
       </c>
       <c r="O26" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="P26" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="Q26" s="6">
         <v>16.600000000000001</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W26">
         <v>20</v>
@@ -3489,19 +3292,13 @@
       <c r="X26">
         <v>20</v>
       </c>
-      <c r="Y26">
-        <v>538.4</v>
-      </c>
-      <c r="AB26">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>6.0179999999999998</v>
@@ -3522,40 +3319,40 @@
         <v>4611.94577513894</v>
       </c>
       <c r="I27" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="J27" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M27" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N27" s="5">
         <v>20210617</v>
       </c>
       <c r="O27" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="P27" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="Q27" s="6">
         <v>23.1</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W27">
         <v>20</v>
@@ -3563,19 +3360,13 @@
       <c r="X27">
         <v>20</v>
       </c>
-      <c r="Y27">
-        <v>538.4</v>
-      </c>
-      <c r="AB27">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>6.0140000000000002</v>
@@ -3596,40 +3387,40 @@
         <v>5654.3517069577601</v>
       </c>
       <c r="I28" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="J28" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M28" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N28" s="5">
         <v>20210617</v>
       </c>
       <c r="O28" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="P28" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="Q28" s="6">
         <v>23.1</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
       <c r="U28" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W28">
         <v>20</v>
@@ -3637,19 +3428,13 @@
       <c r="X28">
         <v>20</v>
       </c>
-      <c r="Y28">
-        <v>538.4</v>
-      </c>
-      <c r="AB28">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>6.0140000000000002</v>
@@ -3670,40 +3455,40 @@
         <v>5046.9552883542401</v>
       </c>
       <c r="I29" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="J29" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="L29" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M29" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N29" s="5">
         <v>20210617</v>
       </c>
       <c r="O29" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="P29" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="6">
         <v>23.1</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="W29">
         <v>20</v>
@@ -3711,19 +3496,13 @@
       <c r="X29">
         <v>20</v>
       </c>
-      <c r="Y29">
-        <v>538.4</v>
-      </c>
-      <c r="AB29">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>6.0090000000000003</v>
@@ -3744,40 +3523,40 @@
         <v>18680.60722297696</v>
       </c>
       <c r="I30" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="J30" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M30" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N30" s="5">
         <v>20210617</v>
       </c>
       <c r="O30" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="P30" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="Q30" s="6">
         <v>15.1</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T30">
         <v>0</v>
       </c>
       <c r="U30" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W30">
         <v>20</v>
@@ -3785,19 +3564,13 @@
       <c r="X30">
         <v>20</v>
       </c>
-      <c r="Y30">
-        <v>538.4</v>
-      </c>
-      <c r="AB30">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>6.0149999999999997</v>
@@ -3818,40 +3591,40 @@
         <v>17763.932254832242</v>
       </c>
       <c r="I31" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="J31" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="L31" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M31" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N31" s="5">
         <v>20210617</v>
       </c>
       <c r="O31" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="P31" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="Q31" s="6">
         <v>15.1</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T31">
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W31">
         <v>20</v>
@@ -3859,19 +3632,13 @@
       <c r="X31">
         <v>20</v>
       </c>
-      <c r="Y31">
-        <v>538.4</v>
-      </c>
-      <c r="AB31">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C32">
         <v>6.02</v>
@@ -3892,40 +3659,40 @@
         <v>17566.541108437501</v>
       </c>
       <c r="I32" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="J32" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="L32" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M32" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N32" s="5">
         <v>20210617</v>
       </c>
       <c r="O32" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="P32" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="Q32" s="6">
         <v>15.1</v>
       </c>
       <c r="R32" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T32">
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W32">
         <v>20</v>
@@ -3933,19 +3700,13 @@
       <c r="X32">
         <v>20</v>
       </c>
-      <c r="Y32">
-        <v>538.4</v>
-      </c>
-      <c r="AB32">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C33">
         <v>6.0129999999999999</v>
@@ -3966,40 +3727,40 @@
         <v>27153.91099458166</v>
       </c>
       <c r="I33" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="J33" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="L33" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M33" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N33" s="5">
         <v>20210617</v>
       </c>
       <c r="O33" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="P33" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="Q33" s="6">
         <v>16.7</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T33">
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W33">
         <v>20</v>
@@ -4007,19 +3768,13 @@
       <c r="X33">
         <v>20</v>
       </c>
-      <c r="Y33">
-        <v>538.4</v>
-      </c>
-      <c r="AB33">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>6.0170000000000003</v>
@@ -4040,40 +3795,40 @@
         <v>25473.319991190641</v>
       </c>
       <c r="I34" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="J34" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="L34" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M34" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N34" s="5">
         <v>20210617</v>
       </c>
       <c r="O34" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="P34" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="Q34" s="6">
         <v>16.7</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T34">
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W34">
         <v>20</v>
@@ -4081,19 +3836,13 @@
       <c r="X34">
         <v>20</v>
       </c>
-      <c r="Y34">
-        <v>538.4</v>
-      </c>
-      <c r="AB34">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>6.0179999999999998</v>
@@ -4114,40 +3863,40 @@
         <v>25564.482570539763</v>
       </c>
       <c r="I35" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="J35" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="L35" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M35" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N35" s="5">
         <v>20210617</v>
       </c>
       <c r="O35" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="P35" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="Q35" s="6">
         <v>16.7</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W35">
         <v>20</v>
@@ -4155,19 +3904,13 @@
       <c r="X35">
         <v>20</v>
       </c>
-      <c r="Y35">
-        <v>538.4</v>
-      </c>
-      <c r="AB35">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>6.0250000000000004</v>
@@ -4188,40 +3931,40 @@
         <v>916.96615460376017</v>
       </c>
       <c r="I36" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="J36" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="L36" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M36" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N36" s="5">
         <v>20210617</v>
       </c>
       <c r="O36" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="P36" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="8">
         <v>29.2</v>
       </c>
       <c r="R36" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W36">
         <v>20</v>
@@ -4229,19 +3972,13 @@
       <c r="X36">
         <v>20</v>
       </c>
-      <c r="Y36">
-        <v>538.4</v>
-      </c>
-      <c r="AB36">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>6.0279999999999996</v>
@@ -4262,40 +3999,40 @@
         <v>1632.5771790015001</v>
       </c>
       <c r="I37" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="J37" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="L37" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M37" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N37" s="5">
         <v>20210617</v>
       </c>
       <c r="O37" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="P37" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="8">
         <v>29.2</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W37">
         <v>20</v>
@@ -4303,19 +4040,13 @@
       <c r="X37">
         <v>20</v>
       </c>
-      <c r="Y37">
-        <v>538.4</v>
-      </c>
-      <c r="AB37">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>6.0279999999999996</v>
@@ -4336,40 +4067,40 @@
         <v>1147.5317518375</v>
       </c>
       <c r="I38" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="J38" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M38" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N38" s="5">
         <v>20210617</v>
       </c>
       <c r="O38" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="P38" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="8">
         <v>29.2</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W38">
         <v>20</v>
@@ -4377,19 +4108,13 @@
       <c r="X38">
         <v>20</v>
       </c>
-      <c r="Y38">
-        <v>538.4</v>
-      </c>
-      <c r="AB38">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C39">
         <v>6.02</v>
@@ -4410,40 +4135,40 @@
         <v>3958.6368290925398</v>
       </c>
       <c r="I39" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="J39" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M39" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N39" s="5">
         <v>20210617</v>
       </c>
       <c r="O39" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="P39" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="Q39" s="6">
         <v>21.1</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W39">
         <v>20</v>
@@ -4451,19 +4176,13 @@
       <c r="X39">
         <v>20</v>
       </c>
-      <c r="Y39">
-        <v>538.4</v>
-      </c>
-      <c r="AB39">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C40">
         <v>6.0330000000000004</v>
@@ -4484,40 +4203,40 @@
         <v>3441.6232252569603</v>
       </c>
       <c r="I40" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="J40" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M40" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N40" s="5">
         <v>20210617</v>
       </c>
       <c r="O40" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="P40" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="Q40" s="6">
         <v>21.1</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W40">
         <v>20</v>
@@ -4525,19 +4244,13 @@
       <c r="X40">
         <v>20</v>
       </c>
-      <c r="Y40">
-        <v>538.4</v>
-      </c>
-      <c r="AB40">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <v>6.0309999999999997</v>
@@ -4558,40 +4271,40 @@
         <v>3154.5230499573599</v>
       </c>
       <c r="I41" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="J41" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="L41" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M41" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N41" s="5">
         <v>20210617</v>
       </c>
       <c r="O41" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="P41" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="6">
         <v>21.1</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W41">
         <v>20</v>
@@ -4599,19 +4312,13 @@
       <c r="X41">
         <v>20</v>
       </c>
-      <c r="Y41">
-        <v>538.4</v>
-      </c>
-      <c r="AB41">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C42">
         <v>6.0119999999999996</v>
@@ -4632,40 +4339,40 @@
         <v>21969.292447053762</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="J42" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="L42" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M42" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N42" s="5">
         <v>20210617</v>
       </c>
       <c r="O42" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="P42" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="Q42" s="6">
         <v>16.100000000000001</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T42">
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W42">
         <v>20</v>
@@ -4673,19 +4380,13 @@
       <c r="X42">
         <v>20</v>
       </c>
-      <c r="Y42">
-        <v>538.4</v>
-      </c>
-      <c r="AB42">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C43">
         <v>6.0209999999999999</v>
@@ -4706,40 +4407,40 @@
         <v>20251.110849255361</v>
       </c>
       <c r="I43" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="J43" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="L43" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M43" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N43" s="5">
         <v>20210617</v>
       </c>
       <c r="O43" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="Q43" s="6">
         <v>16.100000000000001</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T43">
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W43">
         <v>20</v>
@@ -4747,19 +4448,13 @@
       <c r="X43">
         <v>20</v>
       </c>
-      <c r="Y43">
-        <v>538.4</v>
-      </c>
-      <c r="AB43">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44">
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>6.0129999999999999</v>
@@ -4780,40 +4475,40 @@
         <v>21705.74009479256</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="J44" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="L44" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M44" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N44" s="5">
         <v>20210617</v>
       </c>
       <c r="O44" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="P44" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q44" s="6">
         <v>16.100000000000001</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T44">
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W44">
         <v>20</v>
@@ -4821,19 +4516,13 @@
       <c r="X44">
         <v>20</v>
       </c>
-      <c r="Y44">
-        <v>538.4</v>
-      </c>
-      <c r="AB44">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C45">
         <v>6.0110000000000001</v>
@@ -4854,40 +4543,40 @@
         <v>19443.036199233502</v>
       </c>
       <c r="I45" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="J45" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="L45" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M45" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N45" s="5">
         <v>20210617</v>
       </c>
       <c r="O45" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="P45" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="Q45" s="6">
         <v>16.2</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W45">
         <v>20</v>
@@ -4895,19 +4584,13 @@
       <c r="X45">
         <v>20</v>
       </c>
-      <c r="Y45">
-        <v>538.4</v>
-      </c>
-      <c r="AB45">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46">
         <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="C46">
         <v>6.0190000000000001</v>
@@ -4928,40 +4611,40 @@
         <v>18402.902812793342</v>
       </c>
       <c r="I46" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="J46" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="L46" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M46" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N46" s="5">
         <v>20210617</v>
       </c>
       <c r="O46" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="P46" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="Q46" s="6">
         <v>16.2</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T46">
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W46">
         <v>20</v>
@@ -4969,19 +4652,13 @@
       <c r="X46">
         <v>20</v>
       </c>
-      <c r="Y46">
-        <v>538.4</v>
-      </c>
-      <c r="AB46">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47">
         <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="C47">
         <v>6.0110000000000001</v>
@@ -5002,40 +4679,40 @@
         <v>18280.103636427761</v>
       </c>
       <c r="I47" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="J47" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="L47" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M47" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N47" s="5">
         <v>20210617</v>
       </c>
       <c r="O47" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="P47" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="Q47" s="6">
         <v>16.2</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W47">
         <v>20</v>
@@ -5043,19 +4720,13 @@
       <c r="X47">
         <v>20</v>
       </c>
-      <c r="Y47">
-        <v>538.4</v>
-      </c>
-      <c r="AB47">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48">
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>6.024</v>
@@ -5076,40 +4747,40 @@
         <v>4022.2703158535001</v>
       </c>
       <c r="I48" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="J48" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="L48" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M48" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N48" s="5">
         <v>20210617</v>
       </c>
       <c r="O48" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="P48" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="Q48" s="6">
         <v>17.5</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W48">
         <v>20</v>
@@ -5117,19 +4788,13 @@
       <c r="X48">
         <v>20</v>
       </c>
-      <c r="Y48">
-        <v>538.4</v>
-      </c>
-      <c r="AB48">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>6.0149999999999997</v>
@@ -5150,40 +4815,40 @@
         <v>3931.01038364544</v>
       </c>
       <c r="I49" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="J49" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="L49" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M49" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N49" s="5">
         <v>20210617</v>
       </c>
       <c r="O49" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="P49" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="Q49" s="6">
         <v>17.5</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W49">
         <v>20</v>
@@ -5191,19 +4856,13 @@
       <c r="X49">
         <v>20</v>
       </c>
-      <c r="Y49">
-        <v>538.4</v>
-      </c>
-      <c r="AB49">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28">
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C50">
         <v>6.016</v>
@@ -5224,40 +4883,40 @@
         <v>4519.0202082816604</v>
       </c>
       <c r="I50" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="J50" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="L50" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M50" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N50" s="5">
         <v>20210617</v>
       </c>
       <c r="O50" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="P50" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="Q50" s="6">
         <v>17.5</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W50">
         <v>20</v>
@@ -5265,19 +4924,13 @@
       <c r="X50">
         <v>20</v>
       </c>
-      <c r="Y50">
-        <v>538.4</v>
-      </c>
-      <c r="AB50">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28">
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51">
         <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>6.0359999999999996</v>
@@ -5298,25 +4951,25 @@
         <v>535.77001871046002</v>
       </c>
       <c r="J51" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M51" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N51" s="5">
         <v>20210617</v>
       </c>
       <c r="P51" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="W51">
         <v>20</v>
@@ -5324,19 +4977,13 @@
       <c r="X51">
         <v>20</v>
       </c>
-      <c r="Y51">
-        <v>538.4</v>
-      </c>
-      <c r="AB51">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C52">
         <v>6.0410000000000004</v>
@@ -5357,25 +5004,25 @@
         <v>554.88067571446004</v>
       </c>
       <c r="J52" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="L52" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M52" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N52" s="5">
         <v>20210617</v>
       </c>
       <c r="P52" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="W52">
         <v>20</v>
@@ -5383,19 +5030,13 @@
       <c r="X52">
         <v>20</v>
       </c>
-      <c r="Y52">
-        <v>538.4</v>
-      </c>
-      <c r="AB52">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28">
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>6.0309999999999997</v>
@@ -5416,25 +5057,25 @@
         <v>538.44553026806</v>
       </c>
       <c r="J53" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="L53" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M53" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N53" s="5">
         <v>20210617</v>
       </c>
       <c r="P53" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="R53" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="W53">
         <v>20</v>
@@ -5442,19 +5083,13 @@
       <c r="X53">
         <v>20</v>
       </c>
-      <c r="Y53">
-        <v>538.4</v>
-      </c>
-      <c r="AB53">
-        <v>3.863</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28">
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C54">
         <v>6.0129999999999999</v>
@@ -5475,40 +5110,40 @@
         <v>5889.0771795989604</v>
       </c>
       <c r="I54" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="J54" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="L54" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M54" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N54" s="5">
         <v>20210619</v>
       </c>
       <c r="O54" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="P54" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="Q54" s="8">
         <v>21.1</v>
       </c>
       <c r="R54" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W54">
         <v>20</v>
@@ -5516,16 +5151,13 @@
       <c r="X54">
         <v>20</v>
       </c>
-      <c r="Y54">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C55">
         <v>6.0149999999999997</v>
@@ -5546,40 +5178,40 @@
         <v>4721.80884082176</v>
       </c>
       <c r="I55" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="J55" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="L55" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M55" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N55" s="5">
         <v>20210619</v>
       </c>
       <c r="O55" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="P55" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="Q55" s="8">
         <v>21.1</v>
       </c>
       <c r="R55" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T55">
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W55">
         <v>20</v>
@@ -5587,16 +5219,13 @@
       <c r="X55">
         <v>20</v>
       </c>
-      <c r="Y55">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C56">
         <v>6.008</v>
@@ -5617,40 +5246,40 @@
         <v>4748.8445382939999</v>
       </c>
       <c r="I56" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="J56" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="L56" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M56" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N56" s="5">
         <v>20210619</v>
       </c>
       <c r="O56" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="P56" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="Q56" s="8">
         <v>21.1</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T56">
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W56">
         <v>20</v>
@@ -5658,16 +5287,13 @@
       <c r="X56">
         <v>20</v>
       </c>
-      <c r="Y56">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28">
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>6.0339999999999998</v>
@@ -5688,40 +5314,40 @@
         <v>1472.1916743375</v>
       </c>
       <c r="I57" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="J57" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="L57" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M57" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N57" s="5">
         <v>20210619</v>
       </c>
       <c r="O57" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="P57" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="Q57" s="8">
         <v>21.2</v>
       </c>
       <c r="R57" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T57">
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W57">
         <v>20</v>
@@ -5729,16 +5355,13 @@
       <c r="X57">
         <v>20</v>
       </c>
-      <c r="Y57">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28">
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C58">
         <v>6.0339999999999998</v>
@@ -5759,40 +5382,40 @@
         <v>1996.2235641660002</v>
       </c>
       <c r="I58" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="J58" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="L58" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M58" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N58" s="5">
         <v>20210619</v>
       </c>
       <c r="O58" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="P58" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="Q58" s="8">
         <v>21.2</v>
       </c>
       <c r="R58" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W58">
         <v>20</v>
@@ -5800,16 +5423,13 @@
       <c r="X58">
         <v>20</v>
       </c>
-      <c r="Y58">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28">
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59">
         <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C59">
         <v>6.0339999999999998</v>
@@ -5830,40 +5450,40 @@
         <v>1787.9764786773403</v>
       </c>
       <c r="I59" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="J59" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="L59" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M59" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N59" s="5">
         <v>20210619</v>
       </c>
       <c r="O59" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="P59" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="Q59" s="8">
         <v>21.2</v>
       </c>
       <c r="R59" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T59">
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W59">
         <v>20</v>
@@ -5871,16 +5491,13 @@
       <c r="X59">
         <v>20</v>
       </c>
-      <c r="Y59">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28">
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C60">
         <v>6.0250000000000004</v>
@@ -5901,40 +5518,40 @@
         <v>10837.736979269339</v>
       </c>
       <c r="I60" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="J60" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="L60" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M60" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N60" s="5">
         <v>20210619</v>
       </c>
       <c r="O60" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="P60" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="Q60" s="8">
         <v>16.5</v>
       </c>
       <c r="R60" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T60">
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W60">
         <v>20</v>
@@ -5942,16 +5559,13 @@
       <c r="X60">
         <v>20</v>
       </c>
-      <c r="Y60">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C61">
         <v>6.0289999999999999</v>
@@ -5972,40 +5586,40 @@
         <v>10427.34558210656</v>
       </c>
       <c r="I61" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="J61" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="L61" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M61" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N61" s="5">
         <v>20210619</v>
       </c>
       <c r="O61" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="P61" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="Q61" s="8">
         <v>16.5</v>
       </c>
       <c r="R61" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W61">
         <v>20</v>
@@ -6013,16 +5627,13 @@
       <c r="X61">
         <v>20</v>
       </c>
-      <c r="Y61">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28">
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C62">
         <v>6.0279999999999996</v>
@@ -6043,40 +5654,40 @@
         <v>10056.782715472642</v>
       </c>
       <c r="I62" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="J62" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="L62" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M62" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N62" s="5">
         <v>20210619</v>
       </c>
       <c r="O62" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="P62" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="Q62" s="8">
         <v>16.5</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T62">
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W62">
         <v>20</v>
@@ -6084,16 +5695,13 @@
       <c r="X62">
         <v>20</v>
       </c>
-      <c r="Y62">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28">
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C63">
         <v>6.0179999999999998</v>
@@ -6114,40 +5722,40 @@
         <v>19144.292468541498</v>
       </c>
       <c r="I63" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="J63" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L63" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M63" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N63" s="5">
         <v>20210619</v>
       </c>
       <c r="O63" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="P63" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="Q63" s="8">
         <v>15.8</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T63">
         <v>0</v>
       </c>
       <c r="U63" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W63">
         <v>20</v>
@@ -6155,16 +5763,13 @@
       <c r="X63">
         <v>20</v>
       </c>
-      <c r="Y63">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28">
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>6.0279999999999996</v>
@@ -6185,40 +5790,40 @@
         <v>19080.775343570458</v>
       </c>
       <c r="I64" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="J64" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L64" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M64" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N64" s="5">
         <v>20210619</v>
       </c>
       <c r="O64" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="P64" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="Q64" s="8">
         <v>15.8</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T64">
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W64">
         <v>20</v>
@@ -6226,16 +5831,13 @@
       <c r="X64">
         <v>20</v>
       </c>
-      <c r="Y64">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25">
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65">
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C65">
         <v>6.0270000000000001</v>
@@ -6256,40 +5858,40 @@
         <v>18208.260629807042</v>
       </c>
       <c r="I65" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="J65" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M65" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N65" s="5">
         <v>20210619</v>
       </c>
       <c r="O65" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="P65" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="Q65" s="8">
         <v>15.8</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
       <c r="U65" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W65">
         <v>20</v>
@@ -6297,16 +5899,13 @@
       <c r="X65">
         <v>20</v>
       </c>
-      <c r="Y65">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25">
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66">
         <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>6.0149999999999997</v>
@@ -6327,40 +5926,40 @@
         <v>4685.44288961446</v>
       </c>
       <c r="I66" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="J66" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="L66" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M66" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N66" s="5">
         <v>20210619</v>
       </c>
       <c r="O66" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="P66" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="Q66" s="8">
         <v>20.8</v>
       </c>
       <c r="R66" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T66">
         <v>0</v>
       </c>
       <c r="U66" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W66">
         <v>20</v>
@@ -6368,16 +5967,13 @@
       <c r="X66">
         <v>20</v>
       </c>
-      <c r="Y66">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25">
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67">
         <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C67">
         <v>6.0270000000000001</v>
@@ -6398,40 +5994,40 @@
         <v>4300.9574817013599</v>
       </c>
       <c r="I67" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="J67" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="L67" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M67" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N67" s="5">
         <v>20210619</v>
       </c>
       <c r="O67" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="P67" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="Q67" s="8">
         <v>20.8</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T67">
         <v>0</v>
       </c>
       <c r="U67" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W67">
         <v>20</v>
@@ -6439,16 +6035,13 @@
       <c r="X67">
         <v>20</v>
       </c>
-      <c r="Y67">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25">
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68">
         <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="C68">
         <v>6.0229999999999997</v>
@@ -6469,40 +6062,40 @@
         <v>4870.11632386166</v>
       </c>
       <c r="I68" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="J68" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="L68" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M68" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N68" s="5">
         <v>20210619</v>
       </c>
       <c r="O68" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="P68" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="Q68" s="8">
         <v>20.8</v>
       </c>
       <c r="R68" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T68">
         <v>0</v>
       </c>
       <c r="U68" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W68">
         <v>20</v>
@@ -6510,16 +6103,13 @@
       <c r="X68">
         <v>20</v>
       </c>
-      <c r="Y68">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C69">
         <v>6.05</v>
@@ -6540,40 +6130,40 @@
         <v>6848.3874734729598</v>
       </c>
       <c r="I69" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="J69" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="L69" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M69" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N69" s="5">
         <v>20210619</v>
       </c>
       <c r="O69" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="P69" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="Q69" s="8">
         <v>17.899999999999999</v>
       </c>
       <c r="R69" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T69">
         <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W69">
         <v>20</v>
@@ -6581,16 +6171,13 @@
       <c r="X69">
         <v>20</v>
       </c>
-      <c r="Y69">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25">
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70">
         <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="C70">
         <v>6.0439999999999996</v>
@@ -6611,40 +6198,40 @@
         <v>7209.7675581499998</v>
       </c>
       <c r="I70" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="J70" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="L70" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M70" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N70" s="5">
         <v>20210619</v>
       </c>
       <c r="O70" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="P70" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="Q70" s="8">
         <v>17.899999999999999</v>
       </c>
       <c r="R70" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
       <c r="U70" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W70">
         <v>20</v>
@@ -6652,16 +6239,13 @@
       <c r="X70">
         <v>20</v>
       </c>
-      <c r="Y70">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71">
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C71">
         <v>6.0529999999999999</v>
@@ -6682,40 +6266,40 @@
         <v>6982.9212504166399</v>
       </c>
       <c r="I71" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="J71" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="L71" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M71" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N71" s="5">
         <v>20210619</v>
       </c>
       <c r="O71" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="P71" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="Q71" s="8">
         <v>17.899999999999999</v>
       </c>
       <c r="R71" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T71">
         <v>0</v>
       </c>
       <c r="U71" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W71">
         <v>20</v>
@@ -6723,16 +6307,13 @@
       <c r="X71">
         <v>20</v>
       </c>
-      <c r="Y71">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72">
         <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C72">
         <v>6.0209999999999999</v>
@@ -6753,40 +6334,40 @@
         <v>4132.7629605375005</v>
       </c>
       <c r="I72" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="J72" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="L72" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M72" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N72" s="5">
         <v>20210619</v>
       </c>
       <c r="O72" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="P72" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="Q72" s="8">
         <v>16.7</v>
       </c>
       <c r="R72" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T72">
         <v>0</v>
       </c>
       <c r="U72" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W72">
         <v>20</v>
@@ -6794,16 +6375,13 @@
       <c r="X72">
         <v>20</v>
       </c>
-      <c r="Y72">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25">
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73">
         <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C73">
         <v>6.0149999999999997</v>
@@ -6824,40 +6402,40 @@
         <v>4477.5058746414998</v>
       </c>
       <c r="I73" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="J73" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="L73" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M73" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N73" s="5">
         <v>20210619</v>
       </c>
       <c r="O73" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="P73" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="Q73" s="8">
         <v>16.7</v>
       </c>
       <c r="R73" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T73">
         <v>0</v>
       </c>
       <c r="U73" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W73">
         <v>20</v>
@@ -6865,16 +6443,13 @@
       <c r="X73">
         <v>20</v>
       </c>
-      <c r="Y73">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74">
         <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C74">
         <v>6.0129999999999999</v>
@@ -6895,40 +6470,40 @@
         <v>4018.26951488024</v>
       </c>
       <c r="I74" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="J74" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="L74" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M74" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N74" s="5">
         <v>20210619</v>
       </c>
       <c r="O74" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="P74" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="Q74" s="8">
         <v>16.7</v>
       </c>
       <c r="R74" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T74">
         <v>0</v>
       </c>
       <c r="U74" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W74">
         <v>20</v>
@@ -6936,16 +6511,13 @@
       <c r="X74">
         <v>20</v>
       </c>
-      <c r="Y74">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C75">
         <v>6.0549999999999997</v>
@@ -6966,25 +6538,25 @@
         <v>654.05976186136013</v>
       </c>
       <c r="J75" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K75" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L75" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M75" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N75" s="5">
         <v>20210619</v>
       </c>
       <c r="P75" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="R75" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="W75">
         <v>20</v>
@@ -6992,16 +6564,13 @@
       <c r="X75">
         <v>20</v>
       </c>
-      <c r="Y75">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76">
         <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C76">
         <v>6.0529999999999999</v>
@@ -7022,25 +6591,25 @@
         <v>706.60775039286011</v>
       </c>
       <c r="J76" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K76" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L76" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M76" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N76" s="5">
         <v>20210619</v>
       </c>
       <c r="P76" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="R76" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="W76">
         <v>20</v>
@@ -7048,16 +6617,13 @@
       <c r="X76">
         <v>20</v>
       </c>
-      <c r="Y76">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77">
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>6.0449999999999999</v>
@@ -7078,25 +6644,25 @@
         <v>600.36273136454008</v>
       </c>
       <c r="J77" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K77" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L77" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M77" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N77" s="5">
         <v>20210619</v>
       </c>
       <c r="P77" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="R77" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="W77">
         <v>20</v>
@@ -7104,16 +6670,13 @@
       <c r="X77">
         <v>20</v>
       </c>
-      <c r="Y77">
-        <v>654.1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25">
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78">
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C78">
         <v>6.0170000000000003</v>
@@ -7134,40 +6697,40 @@
         <v>2511.8072642441603</v>
       </c>
       <c r="I78" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="J78" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="L78" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M78" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N78" s="5">
         <v>20210618</v>
       </c>
       <c r="O78" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="Q78" s="8">
         <v>27</v>
       </c>
       <c r="R78" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T78">
         <v>0</v>
       </c>
       <c r="U78" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W78">
         <v>20</v>
@@ -7175,16 +6738,13 @@
       <c r="X78">
         <v>20</v>
       </c>
-      <c r="Y78">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C79">
         <v>6.016</v>
@@ -7205,40 +6765,40 @@
         <v>1593.8194513045601</v>
       </c>
       <c r="I79" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="J79" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M79" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N79" s="5">
         <v>20210618</v>
       </c>
       <c r="O79" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="Q79" s="8">
         <v>27</v>
       </c>
       <c r="R79" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T79">
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W79">
         <v>20</v>
@@ -7246,16 +6806,13 @@
       <c r="X79">
         <v>20</v>
       </c>
-      <c r="Y79">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25">
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80">
         <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C80">
         <v>6.016</v>
@@ -7276,40 +6833,40 @@
         <v>2488.72365694774</v>
       </c>
       <c r="I80" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="J80" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="L80" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M80" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N80" s="5">
         <v>20210618</v>
       </c>
       <c r="O80" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="Q80" s="8">
         <v>27</v>
       </c>
       <c r="R80" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T80">
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W80">
         <v>20</v>
@@ -7317,16 +6874,13 @@
       <c r="X80">
         <v>20</v>
       </c>
-      <c r="Y80">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25">
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81">
         <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <v>6.0129999999999999</v>
@@ -7347,40 +6901,40 @@
         <v>5192.5551079629404</v>
       </c>
       <c r="I81" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="J81" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="L81" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M81" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N81" s="5">
         <v>20210618</v>
       </c>
       <c r="O81" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="P81" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="Q81" s="8">
         <v>23.9</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T81">
         <v>0</v>
       </c>
       <c r="U81" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W81">
         <v>20</v>
@@ -7388,16 +6942,13 @@
       <c r="X81">
         <v>20</v>
       </c>
-      <c r="Y81">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25">
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82">
         <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C82">
         <v>6.0220000000000002</v>
@@ -7418,40 +6969,40 @@
         <v>4746.5598568309606</v>
       </c>
       <c r="I82" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="J82" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="L82" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M82" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N82" s="5">
         <v>20210618</v>
       </c>
       <c r="O82" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="P82" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="Q82" s="8">
         <v>23.9</v>
       </c>
       <c r="R82" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T82">
         <v>0</v>
       </c>
       <c r="U82" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W82">
         <v>20</v>
@@ -7459,16 +7010,13 @@
       <c r="X82">
         <v>20</v>
       </c>
-      <c r="Y82">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25">
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83">
         <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C83">
         <v>6.0229999999999997</v>
@@ -7489,40 +7037,40 @@
         <v>4931.2231653257604</v>
       </c>
       <c r="I83" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="J83" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="L83" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M83" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N83" s="5">
         <v>20210618</v>
       </c>
       <c r="O83" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="P83" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="Q83" s="8">
         <v>23.9</v>
       </c>
       <c r="R83" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T83">
         <v>0</v>
       </c>
       <c r="U83" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W83">
         <v>20</v>
@@ -7530,16 +7078,13 @@
       <c r="X83">
         <v>20</v>
       </c>
-      <c r="Y83">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25">
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84">
         <v>63</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C84">
         <v>6.0359999999999996</v>
@@ -7560,40 +7105,40 @@
         <v>15844.58048729176</v>
       </c>
       <c r="I84" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="J84" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="L84" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M84" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N84" s="5">
         <v>20210618</v>
       </c>
       <c r="O84" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="P84" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="Q84" s="8">
         <v>16.8</v>
       </c>
       <c r="R84" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T84">
         <v>0</v>
       </c>
       <c r="U84" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W84">
         <v>20</v>
@@ -7601,16 +7146,13 @@
       <c r="X84">
         <v>20</v>
       </c>
-      <c r="Y84">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25">
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85">
         <v>46</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C85">
         <v>6.0220000000000002</v>
@@ -7631,40 +7173,40 @@
         <v>16502.38403762646</v>
       </c>
       <c r="I85" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="J85" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="L85" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M85" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N85" s="5">
         <v>20210618</v>
       </c>
       <c r="O85" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="P85" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="Q85" s="8">
         <v>16.8</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T85">
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W85">
         <v>20</v>
@@ -7672,16 +7214,13 @@
       <c r="X85">
         <v>20</v>
       </c>
-      <c r="Y85">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25">
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86">
         <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C86">
         <v>6.0250000000000004</v>
@@ -7702,40 +7241,40 @@
         <v>16241.834961894001</v>
       </c>
       <c r="I86" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="J86" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="L86" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M86" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N86" s="5">
         <v>20210618</v>
       </c>
       <c r="O86" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="P86" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="Q86" s="8">
         <v>16.8</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T86">
         <v>0</v>
       </c>
       <c r="U86" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W86">
         <v>20</v>
@@ -7743,16 +7282,13 @@
       <c r="X86">
         <v>20</v>
       </c>
-      <c r="Y86">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25">
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87">
         <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C87">
         <v>6.0149999999999997</v>
@@ -7773,40 +7309,40 @@
         <v>27330.720869693501</v>
       </c>
       <c r="I87" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="J87" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="L87" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M87" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N87" s="5">
         <v>20210618</v>
       </c>
       <c r="O87" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="P87" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="Q87" s="8">
         <v>15.8</v>
       </c>
       <c r="R87" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T87">
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W87">
         <v>20</v>
@@ -7814,16 +7350,13 @@
       <c r="X87">
         <v>20</v>
       </c>
-      <c r="Y87">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25">
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88">
         <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C88">
         <v>6.024</v>
@@ -7844,40 +7377,40 @@
         <v>28287.187821986241</v>
       </c>
       <c r="I88" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="J88" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="L88" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M88" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N88" s="5">
         <v>20210618</v>
       </c>
       <c r="O88" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="P88" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="Q88" s="8">
         <v>15.8</v>
       </c>
       <c r="R88" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T88">
         <v>0</v>
       </c>
       <c r="U88" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W88">
         <v>20</v>
@@ -7885,16 +7418,13 @@
       <c r="X88">
         <v>20</v>
       </c>
-      <c r="Y88">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25">
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89">
         <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C89">
         <v>6.024</v>
@@ -7915,40 +7445,40 @@
         <v>26498.26585535286</v>
       </c>
       <c r="I89" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="J89" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="L89" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M89" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N89" s="5">
         <v>20210618</v>
       </c>
       <c r="O89" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="P89" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="Q89" s="8">
         <v>15.8</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T89">
         <v>0</v>
       </c>
       <c r="U89" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W89">
         <v>20</v>
@@ -7956,16 +7486,13 @@
       <c r="X89">
         <v>20</v>
       </c>
-      <c r="Y89">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25">
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90">
         <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C90">
         <v>6.024</v>
@@ -7986,40 +7513,40 @@
         <v>3041.45473402774</v>
       </c>
       <c r="I90" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="J90" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="L90" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M90" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N90" s="5">
         <v>20210618</v>
       </c>
       <c r="O90" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="P90" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="Q90" s="8">
         <v>24.5</v>
       </c>
       <c r="R90" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T90">
         <v>0</v>
       </c>
       <c r="U90" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W90">
         <v>20</v>
@@ -8027,16 +7554,13 @@
       <c r="X90">
         <v>20</v>
       </c>
-      <c r="Y90">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25">
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91">
         <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C91">
         <v>6.0229999999999997</v>
@@ -8057,40 +7581,40 @@
         <v>3580.7621080021604</v>
       </c>
       <c r="I91" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="J91" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="L91" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M91" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="N91" s="5">
         <v>20210618</v>
       </c>
       <c r="O91" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="P91" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="Q91" s="8">
         <v>24.5</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T91">
         <v>0</v>
       </c>
       <c r="U91" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W91">
         <v>20</v>
@@ -8098,16 +7622,13 @@
       <c r="X91">
         <v>20</v>
       </c>
-      <c r="Y91">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25">
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92">
         <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C92">
         <v>6.0220000000000002</v>
@@ -8128,40 +7649,40 @@
         <v>3802.0144138965397</v>
       </c>
       <c r="I92" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="J92" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="L92" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M92" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="N92" s="5">
         <v>20210618</v>
       </c>
       <c r="O92" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="P92" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="Q92" s="8">
         <v>24.5</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="T92">
         <v>0</v>
       </c>
       <c r="U92" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="W92">
         <v>20</v>
@@ -8169,16 +7690,13 @@
       <c r="X92">
         <v>20</v>
       </c>
-      <c r="Y92">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25">
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93">
         <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C93">
         <v>6.0460000000000003</v>
@@ -8199,25 +7717,25 @@
         <v>554.88067571446004</v>
       </c>
       <c r="J93" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K93" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="L93" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M93" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N93">
         <v>20210618</v>
       </c>
       <c r="P93" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="W93">
         <v>20</v>
@@ -8225,16 +7743,13 @@
       <c r="X93">
         <v>20</v>
       </c>
-      <c r="Y93">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25">
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94">
         <v>68</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C94">
         <v>6.0380000000000003</v>
@@ -8255,25 +7770,25 @@
         <v>687.69075783576011</v>
       </c>
       <c r="J94" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K94" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="L94" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M94" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N94">
         <v>20210618</v>
       </c>
       <c r="P94" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="W94">
         <v>20</v>
@@ -8281,16 +7796,13 @@
       <c r="X94">
         <v>20</v>
       </c>
-      <c r="Y94">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25">
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95">
         <v>64</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C95">
         <v>6.07</v>
@@ -8311,25 +7823,25 @@
         <v>489.71199906776002</v>
       </c>
       <c r="J95" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K95" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="L95" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M95" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="N95">
         <v>20210618</v>
       </c>
       <c r="P95" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="W95">
         <v>20</v>
@@ -8337,16 +7849,13 @@
       <c r="X95">
         <v>20</v>
       </c>
-      <c r="Y95">
-        <v>554.9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25">
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96">
         <v>59</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C96">
         <v>6.0609999999999999</v>
@@ -8367,22 +7876,22 @@
         <v>596.54078077494012</v>
       </c>
       <c r="J96" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K96" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="L96" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M96" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="P96" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="W96">
         <v>20</v>
@@ -8390,16 +7899,13 @@
       <c r="X96">
         <v>20</v>
       </c>
-      <c r="Y96">
-        <v>567.4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25">
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97">
         <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C97">
         <v>6.0670000000000002</v>
@@ -8420,22 +7926,22 @@
         <v>538.25442251104005</v>
       </c>
       <c r="J97" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="K97" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="L97" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M97" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="P97" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="W97">
         <v>20</v>
@@ -8443,1075 +7949,16 @@
       <c r="X97">
         <v>20</v>
       </c>
-      <c r="Y97">
-        <v>567.4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25">
-      <c r="A98">
-        <v>74</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98">
-        <v>6.0129999999999999</v>
-      </c>
-      <c r="D98">
-        <v>61297</v>
-      </c>
-      <c r="E98">
-        <v>160.65223474493189</v>
-      </c>
-      <c r="F98">
-        <v>12.15</v>
-      </c>
-      <c r="G98">
-        <v>21587</v>
-      </c>
-      <c r="H98">
-        <v>4115.9992632680596</v>
-      </c>
-      <c r="R98" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="W98">
-        <v>20</v>
-      </c>
-      <c r="X98">
-        <v>20</v>
-      </c>
-      <c r="Y98">
-        <v>567.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25">
-      <c r="A99">
-        <v>39</v>
-      </c>
-      <c r="B99" t="s">
-        <v>24</v>
-      </c>
-      <c r="C99">
-        <v>6.0510000000000002</v>
-      </c>
-      <c r="D99">
-        <v>1660</v>
-      </c>
-      <c r="E99">
-        <v>-0.52850701999999927</v>
-      </c>
-      <c r="F99">
-        <v>12.212</v>
-      </c>
-      <c r="G99">
-        <v>3719</v>
-      </c>
-      <c r="H99">
-        <v>706.98990857414003</v>
-      </c>
-      <c r="W99">
-        <v>20</v>
-      </c>
-      <c r="X99">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25">
-      <c r="A100">
-        <v>39</v>
-      </c>
-      <c r="B100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100">
-        <v>6.0709999999999997</v>
-      </c>
-      <c r="D100">
-        <v>1690</v>
-      </c>
-      <c r="E100">
-        <v>-0.41964099499999996</v>
-      </c>
-      <c r="F100">
-        <v>12.212</v>
-      </c>
-      <c r="G100">
-        <v>2454</v>
-      </c>
-      <c r="H100">
-        <v>465.24888039384001</v>
-      </c>
-      <c r="W100">
-        <v>20</v>
-      </c>
-      <c r="X100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25">
-      <c r="A101">
-        <v>39</v>
-      </c>
-      <c r="B101" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101">
-        <v>6.0590000000000002</v>
-      </c>
-      <c r="D101">
-        <v>1592</v>
-      </c>
-      <c r="E101">
-        <v>-0.77565618879999931</v>
-      </c>
-      <c r="F101">
-        <v>12.227</v>
-      </c>
-      <c r="G101">
-        <v>2378</v>
-      </c>
-      <c r="H101">
-        <v>450.72365158616003</v>
-      </c>
-      <c r="W101">
-        <v>20</v>
-      </c>
-      <c r="X101">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25">
-      <c r="A102">
-        <v>40</v>
-      </c>
-      <c r="B102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102">
-        <v>6.0090000000000003</v>
-      </c>
-      <c r="D102">
-        <v>878233</v>
-      </c>
-      <c r="E102">
-        <v>2193.3733571425701</v>
-      </c>
-      <c r="F102">
-        <v>12.173</v>
-      </c>
-      <c r="G102">
-        <v>9063</v>
-      </c>
-      <c r="H102">
-        <v>1727.6520366240602</v>
-      </c>
-      <c r="W102">
-        <v>20</v>
-      </c>
-      <c r="X102">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25">
-      <c r="A103">
-        <v>40</v>
-      </c>
-      <c r="B103" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103">
-        <v>6.0129999999999999</v>
-      </c>
-      <c r="D103">
-        <v>868204</v>
-      </c>
-      <c r="E103">
-        <v>2057.3779408179203</v>
-      </c>
-      <c r="F103">
-        <v>12.177</v>
-      </c>
-      <c r="G103">
-        <v>8804</v>
-      </c>
-      <c r="H103">
-        <v>1678.2064806358401</v>
-      </c>
-      <c r="W103">
-        <v>20</v>
-      </c>
-      <c r="X103">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25">
-      <c r="A104">
-        <v>40</v>
-      </c>
-      <c r="B104" t="s">
-        <v>25</v>
-      </c>
-      <c r="C104">
-        <v>6.01</v>
-      </c>
-      <c r="D104">
-        <v>902543</v>
-      </c>
-      <c r="E104">
-        <v>2137.0301133989701</v>
-      </c>
-      <c r="F104">
-        <v>12.196999999999999</v>
-      </c>
-      <c r="G104">
-        <v>9929</v>
-      </c>
-      <c r="H104">
-        <v>1892.96380723334</v>
-      </c>
-      <c r="W104">
-        <v>20</v>
-      </c>
-      <c r="X104">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25">
-      <c r="A105">
-        <v>46</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105">
-        <v>6.0220000000000002</v>
-      </c>
-      <c r="D105">
-        <v>60393</v>
-      </c>
-      <c r="E105">
-        <v>158.28349468311592</v>
-      </c>
-      <c r="F105">
-        <v>12.162000000000001</v>
-      </c>
-      <c r="G105">
-        <v>19113</v>
-      </c>
-      <c r="H105">
-        <v>3644.6077119360598</v>
-      </c>
-      <c r="W105">
-        <v>20</v>
-      </c>
-      <c r="X105">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:25">
-      <c r="A106">
-        <v>80</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106">
-        <v>6.0229999999999997</v>
-      </c>
-      <c r="D106">
-        <v>70323</v>
-      </c>
-      <c r="E106">
-        <v>184.2921152886239</v>
-      </c>
-      <c r="F106">
-        <v>12.164</v>
-      </c>
-      <c r="G106">
-        <v>22592</v>
-      </c>
-      <c r="H106">
-        <v>4307.4333209753595</v>
-      </c>
-      <c r="W106">
-        <v>20</v>
-      </c>
-      <c r="X106">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:25">
-      <c r="A107">
-        <v>72</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C107">
-        <v>6.0250000000000004</v>
-      </c>
-      <c r="D107">
-        <v>16665</v>
-      </c>
-      <c r="E107">
-        <v>43.467598382997501</v>
-      </c>
-      <c r="F107">
-        <v>12.159000000000001</v>
-      </c>
-      <c r="G107">
-        <v>22727</v>
-      </c>
-      <c r="H107">
-        <v>4333.14584123846</v>
-      </c>
-      <c r="W107">
-        <v>20</v>
-      </c>
-      <c r="X107">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:25">
-      <c r="A108">
-        <v>56</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C108">
-        <v>6.0179999999999998</v>
-      </c>
-      <c r="D108">
-        <v>18664</v>
-      </c>
-      <c r="E108">
-        <v>48.726425102073605</v>
-      </c>
-      <c r="F108">
-        <v>12.161</v>
-      </c>
-      <c r="G108">
-        <v>20363</v>
-      </c>
-      <c r="H108">
-        <v>3882.8053622360599</v>
-      </c>
-      <c r="W108">
-        <v>20</v>
-      </c>
-      <c r="X108">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:25">
-      <c r="A109">
-        <v>54</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C109">
-        <v>6.0170000000000003</v>
-      </c>
-      <c r="D109">
-        <v>18615</v>
-      </c>
-      <c r="E109">
-        <v>48.597530946597502</v>
-      </c>
-      <c r="F109">
-        <v>12.156000000000001</v>
-      </c>
-      <c r="G109">
-        <v>21342</v>
-      </c>
-      <c r="H109">
-        <v>4069.32627952536</v>
-      </c>
-      <c r="W109">
-        <v>20</v>
-      </c>
-      <c r="X109">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:25">
-      <c r="A110">
-        <v>41</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110">
-        <v>6.0519999999999996</v>
-      </c>
-      <c r="D110">
-        <v>1572</v>
-      </c>
-      <c r="E110">
-        <v>-0.84844911279999913</v>
-      </c>
-      <c r="F110">
-        <v>12.185</v>
-      </c>
-      <c r="G110">
-        <v>3146</v>
-      </c>
-      <c r="H110">
-        <v>597.49626964184006</v>
-      </c>
-      <c r="W110">
-        <v>20</v>
-      </c>
-      <c r="X110">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:25">
-      <c r="A111">
-        <v>67</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C111">
-        <v>6.0709999999999997</v>
-      </c>
-      <c r="D111">
-        <v>1545</v>
-      </c>
-      <c r="E111">
-        <v>-0.94679309874999973</v>
-      </c>
-      <c r="F111">
-        <v>12.212</v>
-      </c>
-      <c r="G111">
-        <v>3560</v>
-      </c>
-      <c r="H111">
-        <v>676.60792726400007</v>
-      </c>
-      <c r="W111">
-        <v>20</v>
-      </c>
-      <c r="X111">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:25">
-      <c r="A112">
-        <v>66</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C112">
-        <v>6.0579999999999998</v>
-      </c>
-      <c r="D112">
-        <v>1665</v>
-      </c>
-      <c r="E112">
-        <v>-0.51035543875000045</v>
-      </c>
-      <c r="F112">
-        <v>12.199</v>
-      </c>
-      <c r="G112">
-        <v>3222</v>
-      </c>
-      <c r="H112">
-        <v>612.01960032216016</v>
-      </c>
-      <c r="W112">
-        <v>20</v>
-      </c>
-      <c r="X112">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24">
-      <c r="A113">
-        <v>45</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C113">
-        <v>6.0720000000000001</v>
-      </c>
-      <c r="D113">
-        <v>1787</v>
-      </c>
-      <c r="E113">
-        <v>-6.8354733549999658E-2</v>
-      </c>
-      <c r="F113">
-        <v>12.202</v>
-      </c>
-      <c r="G113">
-        <v>3350</v>
-      </c>
-      <c r="H113">
-        <v>636.47952214999998</v>
-      </c>
-      <c r="W113">
-        <v>20</v>
-      </c>
-      <c r="X113">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24">
-      <c r="A114">
-        <v>60</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114">
-        <v>6.0570000000000004</v>
-      </c>
-      <c r="D114">
-        <v>1445</v>
-      </c>
-      <c r="E114">
-        <v>-1.31176604875</v>
-      </c>
-      <c r="F114">
-        <v>12.206</v>
-      </c>
-      <c r="G114">
-        <v>3140</v>
-      </c>
-      <c r="H114">
-        <v>596.34968290400013</v>
-      </c>
-      <c r="W114">
-        <v>20</v>
-      </c>
-      <c r="X114">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24">
-      <c r="A115">
-        <v>79</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C115">
-        <v>6.0519999999999996</v>
-      </c>
-      <c r="D115">
-        <v>1395</v>
-      </c>
-      <c r="E115">
-        <v>-1.4946871487500006</v>
-      </c>
-      <c r="F115">
-        <v>12.198</v>
-      </c>
-      <c r="G115">
-        <v>2837</v>
-      </c>
-      <c r="H115">
-        <v>538.44553026806</v>
-      </c>
-      <c r="W115">
-        <v>20</v>
-      </c>
-      <c r="X115">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24">
-      <c r="A116">
-        <v>65</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C116">
-        <v>6.0220000000000002</v>
-      </c>
-      <c r="D116">
-        <v>6104</v>
-      </c>
-      <c r="E116">
-        <v>14.4614436128</v>
-      </c>
-      <c r="F116">
-        <v>12.157</v>
-      </c>
-      <c r="G116">
-        <v>16304</v>
-      </c>
-      <c r="H116">
-        <v>3109.1445600358402</v>
-      </c>
-      <c r="W116">
-        <v>20</v>
-      </c>
-      <c r="X116">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24">
-      <c r="A117">
-        <v>51</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C117">
-        <v>6.0369999999999999</v>
-      </c>
-      <c r="D117">
-        <v>5852</v>
-      </c>
-      <c r="E117">
-        <v>13.6726458632</v>
-      </c>
-      <c r="F117">
-        <v>12.169</v>
-      </c>
-      <c r="G117">
-        <v>14811</v>
-      </c>
-      <c r="H117">
-        <v>2824.43831337654</v>
-      </c>
-      <c r="W117">
-        <v>20</v>
-      </c>
-      <c r="X117">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24">
-      <c r="A118">
-        <v>71</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C118">
-        <v>6.03</v>
-      </c>
-      <c r="D118">
-        <v>5421</v>
-      </c>
-      <c r="E118">
-        <v>12.306492384049999</v>
-      </c>
-      <c r="F118">
-        <v>12.167999999999999</v>
-      </c>
-      <c r="G118">
-        <v>15905</v>
-      </c>
-      <c r="H118">
-        <v>3033.0647236535001</v>
-      </c>
-      <c r="W118">
-        <v>20</v>
-      </c>
-      <c r="X118">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24">
-      <c r="A119">
-        <v>55</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C119">
-        <v>6.0289999999999999</v>
-      </c>
-      <c r="D119">
-        <v>7060</v>
-      </c>
-      <c r="E119">
-        <v>17.386943380000002</v>
-      </c>
-      <c r="F119">
-        <v>12.185</v>
-      </c>
-      <c r="G119">
-        <v>15211</v>
-      </c>
-      <c r="H119">
-        <v>2900.72305028854</v>
-      </c>
-      <c r="W119">
-        <v>20</v>
-      </c>
-      <c r="X119">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24">
-      <c r="A120">
-        <v>63</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C120">
-        <v>6.02</v>
-      </c>
-      <c r="D120">
-        <v>7832</v>
-      </c>
-      <c r="E120">
-        <v>19.6720700192</v>
-      </c>
-      <c r="F120">
-        <v>12.157999999999999</v>
-      </c>
-      <c r="G120">
-        <v>16871</v>
-      </c>
-      <c r="H120">
-        <v>3217.24910577734</v>
-      </c>
-      <c r="W120">
-        <v>20</v>
-      </c>
-      <c r="X120">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24">
-      <c r="A121">
-        <v>69</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C121">
-        <v>6.0190000000000001</v>
-      </c>
-      <c r="D121">
-        <v>7735</v>
-      </c>
-      <c r="E121">
-        <v>19.388743461249998</v>
-      </c>
-      <c r="F121">
-        <v>12.148999999999999</v>
-      </c>
-      <c r="G121">
-        <v>17489</v>
-      </c>
-      <c r="H121">
-        <v>3335.06543313254</v>
-      </c>
-      <c r="W121">
-        <v>20</v>
-      </c>
-      <c r="X121">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24">
-      <c r="A122">
-        <v>44</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C122">
-        <v>6.0279999999999996</v>
-      </c>
-      <c r="D122">
-        <v>5201</v>
-      </c>
-      <c r="E122">
-        <v>11.600852262050001</v>
-      </c>
-      <c r="F122">
-        <v>12.180999999999999</v>
-      </c>
-      <c r="G122">
-        <v>8212</v>
-      </c>
-      <c r="H122">
-        <v>1565.1798752905602</v>
-      </c>
-      <c r="W122">
-        <v>20</v>
-      </c>
-      <c r="X122">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24">
-      <c r="A123">
-        <v>62</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C123">
-        <v>6.032</v>
-      </c>
-      <c r="D123">
-        <v>4756</v>
-      </c>
-      <c r="E123">
-        <v>10.156385888799999</v>
-      </c>
-      <c r="F123">
-        <v>12.177</v>
-      </c>
-      <c r="G123">
-        <v>7995</v>
-      </c>
-      <c r="H123">
-        <v>1523.7466603935</v>
-      </c>
-      <c r="W123">
-        <v>20</v>
-      </c>
-      <c r="X123">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24">
-      <c r="A124">
-        <v>50</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C124">
-        <v>6.0350000000000001</v>
-      </c>
-      <c r="D124">
-        <v>5185</v>
-      </c>
-      <c r="E124">
-        <v>11.549314161249999</v>
-      </c>
-      <c r="F124">
-        <v>12.180999999999999</v>
-      </c>
-      <c r="G124">
-        <v>7956</v>
-      </c>
-      <c r="H124">
-        <v>1516.2999755606402</v>
-      </c>
-      <c r="W124">
-        <v>20</v>
-      </c>
-      <c r="X124">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24">
-      <c r="A125">
-        <v>73</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C125">
-        <v>6.024</v>
-      </c>
-      <c r="D125">
-        <v>18937</v>
-      </c>
-      <c r="E125">
-        <v>49.444539054747906</v>
-      </c>
-      <c r="F125">
-        <v>12.176</v>
-      </c>
-      <c r="G125">
-        <v>5071</v>
-      </c>
-      <c r="H125">
-        <v>965.29907343334003</v>
-      </c>
-      <c r="W125">
-        <v>20</v>
-      </c>
-      <c r="X125">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24">
-      <c r="A126">
-        <v>43</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C126">
-        <v>6.02</v>
-      </c>
-      <c r="D126">
-        <v>20813</v>
-      </c>
-      <c r="E126">
-        <v>54.378783420847903</v>
-      </c>
-      <c r="F126">
-        <v>12.164999999999999</v>
-      </c>
-      <c r="G126">
-        <v>12857</v>
-      </c>
-      <c r="H126">
-        <v>2451.7125821792602</v>
-      </c>
-      <c r="W126">
-        <v>20</v>
-      </c>
-      <c r="X126">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24">
-      <c r="A127">
-        <v>58</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C127">
-        <v>6.0190000000000001</v>
-      </c>
-      <c r="D127">
-        <v>20098</v>
-      </c>
-      <c r="E127">
-        <v>52.498294910876403</v>
-      </c>
-      <c r="F127">
-        <v>12.175000000000001</v>
-      </c>
-      <c r="G127">
-        <v>6417</v>
-      </c>
-      <c r="H127">
-        <v>1222.4028475248599</v>
-      </c>
-      <c r="W127">
-        <v>20</v>
-      </c>
-      <c r="X127">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24">
-      <c r="A128">
-        <v>42</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C128">
-        <v>6.05</v>
-      </c>
-      <c r="D128">
-        <v>1586</v>
-      </c>
-      <c r="E128">
-        <v>-0.79748919819999919</v>
-      </c>
-      <c r="F128">
-        <v>12.172000000000001</v>
-      </c>
-      <c r="G128">
-        <v>3772</v>
-      </c>
-      <c r="H128">
-        <v>717.11705298016011</v>
-      </c>
-      <c r="W128">
-        <v>20</v>
-      </c>
-      <c r="X128">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24">
-      <c r="A129">
-        <v>43</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C129">
-        <v>6.0469999999999997</v>
-      </c>
-      <c r="D129">
-        <v>1429</v>
-      </c>
-      <c r="E129">
-        <v>-1.3702692759500001</v>
-      </c>
-      <c r="F129">
-        <v>12.182</v>
-      </c>
-      <c r="G129">
-        <v>3668</v>
-      </c>
-      <c r="H129">
-        <v>697.24483431776002</v>
-      </c>
-      <c r="W129">
-        <v>20</v>
-      </c>
-      <c r="X129">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24">
-      <c r="A130">
-        <v>41</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C130">
-        <v>6.0510000000000002</v>
-      </c>
-      <c r="D130">
-        <v>1464</v>
-      </c>
-      <c r="E130">
-        <v>-1.2423320031999996</v>
-      </c>
-      <c r="F130">
-        <v>12.182</v>
-      </c>
-      <c r="G130">
-        <v>4976</v>
-      </c>
-      <c r="H130">
-        <v>947.15059303424005</v>
-      </c>
-      <c r="W130">
-        <v>20</v>
-      </c>
-      <c r="X130">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="98" spans="1:24">
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="1:24">
+      <c r="B99" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD130">
-    <sortCondition ref="R2:R130"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X99">
+    <sortCondition ref="R2:R99"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
